--- a/2023-05/202305/01_基本設計書/01_基本設計書/バージョン１/基本設計書_入出庫登録画面(篠崎) .xlsx
+++ b/2023-05/202305/01_基本設計書/01_基本設計書/バージョン１/基本設計書_入出庫登録画面(篠崎) .xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{43546252-DE58-4BB1-9921-FD994D23855F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10740" tabRatio="900" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10740" tabRatio="900" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -23,21 +23,21 @@
     <sheet name="書式文字" sheetId="25" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面レイアウト（ログイン）'!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面レイアウト（在庫情報一覧）'!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'画面レイアウト（在庫情報登録） '!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'画面レイアウト（入出庫情報一覧）'!$A$1:$AG$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'画面レイアウト（入出庫情報登録）'!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">書式文字!$A$1:$F$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$41</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'IO関連図'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面レイアウト（ログイン）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'画面レイアウト（在庫情報一覧）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'画面レイアウト（在庫情報登録） '!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'画面レイアウト（入出庫情報一覧）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'画面レイアウト（入出庫情報登録）'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙'!A1:AF41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'IO関連図'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面レイアウト（ログイン）'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面レイアウト（在庫情報一覧）'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'画面レイアウト（在庫情報登録） '!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'画面レイアウト（入出庫情報一覧）'!A1:AG40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'画面レイアウト（入出庫情報登録）'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'書式文字'!A1:F23</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>基本設計書</t>
   </si>
@@ -129,23 +129,18 @@
   </si>
   <si>
     <t>在庫名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在庫状況</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ーー</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>▼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>更新日時</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>YYYY/MM/DD</t>
@@ -155,29 +150,21 @@
   </si>
   <si>
     <t>検索</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>閉じる</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>追加</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>削除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>□</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在庫ID</t>
-  </si>
-  <si>
-    <t>在庫名称</t>
   </si>
   <si>
     <t>単位</t>
@@ -189,15 +176,10 @@
     <t>更新者</t>
   </si>
   <si>
-    <t>更新日時</t>
-  </si>
-  <si>
     <t>操作</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>６６６（１１桁）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ＯＯ（２０桁まで）</t>
@@ -216,11 +198,9 @@
   </si>
   <si>
     <t>編集</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>入出庫</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>△</t>
@@ -229,19 +209,14 @@
     <t>▽</t>
   </si>
   <si>
-    <t>在庫ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>ＯＯＯＯＯＯＯＯＯＯ</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <rFont val="Yu Gothic"/>
         <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Yu Gothic"/>
+        <color rgb="FFFF0000"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
@@ -249,25 +224,23 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Yu Gothic"/>
         <sz val="10"/>
-        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>在庫名称</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ＢＢ（２０桁まで）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <rFont val="Yu Gothic"/>
         <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Yu Gothic"/>
+        <color rgb="FFFF0000"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
@@ -275,111 +248,49 @@
     </r>
     <r>
       <rPr>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="254"/>
       </rPr>
       <t>単位</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>ＯＯ（１０桁まで）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ＢＢＢＢＢＢＢＢＢＢ（最大５０桁まで）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>登録</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>画面レイアウト(最大50桁)</t>
-    <rPh sb="8" eb="10">
-      <t>ｻｲﾀﾞｲ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ｹﾀ</t>
-    </rPh>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>濱</t>
-    <rPh sb="0" eb="1">
-      <t>ﾊﾏ</t>
-    </rPh>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>－－</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>入庫</t>
-    <rPh sb="0" eb="2">
-      <t>ﾆｭｳｺ</t>
-    </rPh>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>出庫</t>
-    <rPh sb="0" eb="2">
-      <t>ｼｭｯｺ</t>
-    </rPh>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>篠崎</t>
-    <rPh sb="0" eb="2">
-      <t>シノサキ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>入出庫登録画面</t>
   </si>
   <si>
-    <t>－－</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>・在庫情報一覧画面の「入出庫ボタン」より遷移</t>
   </si>
   <si>
-    <t>入庫</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウコ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>在庫ID</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>・在庫情報マスタより、在庫ID、在庫名称、単位、在庫数量を取得、反映</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>出庫</t>
-    <rPh sb="0" eb="2">
-      <t>シュッコ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>・在庫ID、英数字11桁、入力不可、グレー文字</t>
-  </si>
-  <si>
-    <t>在庫名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>・在庫名称、漢字英数字最大20桁、入力不可、グレー文字</t>
@@ -389,11 +300,6 @@
   </si>
   <si>
     <t>・在庫数量、数字最大11桁、入力不可グレー文字</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>単位</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>・入出庫タイプ、入庫or出庫プルダウン式</t>
@@ -403,15 +309,9 @@
   </si>
   <si>
     <t>・備考、任意文字列、最大200桁</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>在庫数量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>入出庫タイプ　　</t>
-    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>登録、</t>
@@ -421,20 +321,12 @@
   </si>
   <si>
     <t>入出庫数量　　</t>
-    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>・在庫情報一覧画面へ遷移</t>
   </si>
   <si>
     <t>・押下時、エフェクトあり</t>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>閉じる</t>
   </si>
   <si>
     <t>エラーメッセージ</t>
@@ -444,10 +336,6 @@
   </si>
   <si>
     <t>・入出庫数量、未入力時、数字以外入力時エラーメッセージ</t>
-  </si>
-  <si>
-    <t>登録</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>必須チェック</t>
@@ -505,8 +393,8 @@
     </r>
     <r>
       <rPr>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="254"/>
       </rPr>
@@ -1698,29 +1586,23 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>89541</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BAC6D2-F399-6A42-1375-BFDA0F129BC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Line 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1770,28 +1652,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D04E239-5137-A880-727D-A516925B02DE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D4BAC6D2-F399-6A42-1375-BFDA0F129BC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="AutoShape 10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1805,11 +1678,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -1817,9 +1690,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN"/>
-          </a:defPPr>
           <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
             <a:defRPr sz="1100">
               <a:latin typeface="+mn-lt"/>
@@ -1889,15 +1759,14 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>在庫情報</a:t>
           </a:r>
@@ -1905,8 +1774,8 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1914,14 +1783,13 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1931,28 +1799,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>244475</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>198755</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EC0747-1B1F-A9F5-4EC3-A9700CA55D5E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6D04E239-5137-A880-727D-A516925B02DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Line 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2002,28 +1861,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>300355</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3928F910-5FA0-2906-244A-DE62514359D2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F1EC0747-1B1F-A9F5-4EC3-A9700CA55D5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="AutoShape 10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2037,11 +1887,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2049,9 +1899,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN"/>
-          </a:defPPr>
           <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
             <a:defRPr sz="1100">
               <a:latin typeface="+mn-lt"/>
@@ -2121,15 +1968,14 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>入出庫情報</a:t>
           </a:r>
@@ -2137,8 +1983,8 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2146,14 +1992,13 @@
             <a:lnSpc>
               <a:spcPts val="1100"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2165,26 +2010,17 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>240665</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E3CC7C-ECA8-BB8A-DBAA-0B48DEDF9B39}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3928F910-5FA0-2906-244A-DE62514359D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="AutoShape 13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2198,11 +2034,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
@@ -2210,13 +2046,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
           <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
             <a:defRPr sz="1100">
               <a:solidFill>
@@ -2313,15 +2142,14 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>入出庫情報一覧</a:t>
           </a:r>
@@ -2331,14 +2159,13 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2348,28 +2175,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>140335</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>245110</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A1340F-03C8-1740-BF20-77B1454F0198}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{19E3CC7C-ECA8-BB8A-DBAA-0B48DEDF9B39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="AutoShape 13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2383,11 +2201,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
@@ -2395,13 +2213,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
           <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
             <a:defRPr sz="1100">
               <a:solidFill>
@@ -2498,15 +2309,14 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>入出庫情報登録</a:t>
           </a:r>
@@ -2516,14 +2326,13 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2531,14 +2340,13 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2546,14 +2354,13 @@
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
-            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2563,28 +2370,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>334645</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>61595</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EABDCB9-F924-36F2-1D42-C25DC0949151}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{43A1340F-03C8-1740-BF20-77B1454F0198}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2636,26 +2434,17 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>133985</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A85C33-CF4B-DBFA-A389-6E3291C8609A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4EABDCB9-F924-36F2-1D42-C25DC0949151}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2705,28 +2494,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>302260</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A659098-EBF2-D417-9FCE-B74C0EA0B31A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{57A85C33-CF4B-DBFA-A389-6E3291C8609A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Line 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2777,65 +2557,59 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>227965</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>3869</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB3EA22-86CF-A042-66A6-051C8EFF2B0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Text Box 2"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3984625" y="3568065"/>
-          <a:ext cx="709930" cy="219075"/>
+          <a:off x="3990975" y="3533775"/>
+          <a:ext cx="723900" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
+          <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" rtlCol="0" anchor="t" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>閉じる</a:t>
           </a:r>
@@ -2847,61 +2621,55 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>164465</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205096</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>78381</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882F7CDE-3713-6F0A-1C3E-6AFE55D553B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981960" y="3573780"/>
-          <a:ext cx="657225" cy="228600"/>
+          <a:off x="2990850" y="3533775"/>
+          <a:ext cx="666750" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
+          <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" rtlCol="0" anchor="t" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>ログイン</a:t>
           </a:r>
@@ -2919,25 +2687,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AFB22C-A5E9-F3CB-63B4-67F38E9A21F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3130550" y="3076575"/>
-          <a:ext cx="4705985" cy="200025"/>
+          <a:off x="3143250" y="3048000"/>
+          <a:ext cx="4724400" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2976,8 +2738,8 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>パスワードが間違っています。再度入力しなおしてください。</a:t>
           </a:r>
@@ -2990,7 +2752,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -3000,25 +2762,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972E3A60-7C8C-E22E-BCB6-A3DAD945CCCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2505075" y="2714625"/>
-          <a:ext cx="4725035" cy="219075"/>
+          <a:ext cx="4724400" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3057,8 +2813,8 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>「在庫名称」を入力してください。</a:t>
           </a:r>
@@ -3066,8 +2822,8 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+            <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+            <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3078,35 +2834,29 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152958</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>17931</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>220755</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>20733</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F8564A-ECFE-CE2D-45AE-940A02302164}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="角丸四角形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981883" y="3551706"/>
-          <a:ext cx="382122" cy="164727"/>
+          <a:off x="2981325" y="3543300"/>
+          <a:ext cx="381000" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3135,7 +2885,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -3146,8 +2896,8 @@
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>必須</a:t>
           </a:r>
@@ -3159,31 +2909,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>51547</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10506F6-D222-0A95-1CAF-6A827103522E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3509122" y="1590674"/>
-          <a:ext cx="3091703" cy="161925"/>
+          <a:off x="3505200" y="1581150"/>
+          <a:ext cx="3095625" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3198,7 +2942,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -3224,8 +2968,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>（11</a:t>
           </a:r>
@@ -3236,8 +2980,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>桁）</a:t>
           </a:r>
@@ -3249,9 +2993,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>51547</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -3259,21 +3003,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7001F9-4585-220E-A837-BDD446F41034}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3509122" y="2060202"/>
-          <a:ext cx="3082178" cy="159123"/>
+          <a:off x="3505200" y="2057400"/>
+          <a:ext cx="3086100" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3288,7 +3026,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3381,8 +3119,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>（</a:t>
           </a:r>
@@ -3393,8 +3131,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>最大</a:t>
           </a:r>
@@ -3405,8 +3143,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>20</a:t>
           </a:r>
@@ -3417,8 +3155,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>桁）</a:t>
           </a:r>
@@ -3430,9 +3168,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>150719</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -3440,21 +3178,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9B0D43-7FE5-3711-CD98-525EF991C0C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3475505" y="2551019"/>
-          <a:ext cx="3134845" cy="201706"/>
+          <a:off x="3467100" y="2543175"/>
+          <a:ext cx="3143250" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3469,7 +3201,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3572,8 +3304,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>（</a:t>
           </a:r>
@@ -3584,8 +3316,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>最大</a:t>
           </a:r>
@@ -3596,8 +3328,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
@@ -3608,8 +3340,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>桁）</a:t>
           </a:r>
@@ -3621,9 +3353,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>32497</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>137833</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -3631,21 +3363,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53425BAA-1A90-466B-E31A-EC81F3405974}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3490072" y="3023908"/>
-          <a:ext cx="3120278" cy="176492"/>
+          <a:off x="3486150" y="3019425"/>
+          <a:ext cx="3124200" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3660,7 +3386,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3753,8 +3479,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>（最大</a:t>
           </a:r>
@@ -3765,8 +3491,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>11</a:t>
           </a:r>
@@ -3777,8 +3503,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>桁）</a:t>
           </a:r>
@@ -3790,31 +3516,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>99172</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>14007</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC8B808-8A4E-740A-AB33-DA9711A90BE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556747" y="4033557"/>
-          <a:ext cx="1091453" cy="166967"/>
+          <a:off x="3552825" y="4029075"/>
+          <a:ext cx="1095375" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3829,7 +3549,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3931,15 +3651,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB801F0-222E-2BBC-D107-A753FF194757}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3960,7 +3674,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -4071,9 +3785,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>200</a:t>
           </a:r>
@@ -4115,31 +3829,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>117661</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>561</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>186578</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F90B733-9588-1202-E717-38D4A3787BDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="角丸四角形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2946586" y="4020111"/>
-          <a:ext cx="383242" cy="145115"/>
+          <a:off x="2943225" y="4019550"/>
+          <a:ext cx="381000" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4168,7 +3876,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -4273,8 +3981,8 @@
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>必須</a:t>
           </a:r>
@@ -4286,31 +3994,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>30257</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>109258</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>40342</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>128308</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EDAD7C-F888-8276-0F33-73BCE44C9CAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3487832" y="3643033"/>
-          <a:ext cx="2896160" cy="180975"/>
+          <a:off x="3486150" y="3638550"/>
+          <a:ext cx="2895600" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4321,7 +4023,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -4332,8 +4034,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>※</a:t>
           </a:r>
@@ -4342,8 +4044,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>入出庫タイプを選択してください</a:t>
           </a:r>
@@ -4357,28 +4059,22 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>132789</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>151839</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490E0EDE-D858-4EC0-BD88-3CAA055E0DFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514725" y="4152339"/>
+          <a:off x="3514725" y="4143375"/>
           <a:ext cx="2895600" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4390,7 +4086,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -4401,8 +4097,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>※</a:t>
           </a:r>
@@ -4411,8 +4107,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>入出庫数量を入力してください</a:t>
           </a:r>
@@ -4424,31 +4120,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE779CB6-1DD2-AC36-7149-6F112ED61CEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3536017" y="3517528"/>
-          <a:ext cx="750233" cy="168648"/>
+          <a:off x="3829050" y="3457575"/>
+          <a:ext cx="419100" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4463,7 +4153,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -4537,22 +4227,269 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>〇〇　　▼</a:t>
+            <a:t>入庫</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="3457575"/>
+          <a:ext cx="419100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>入庫</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="3524250"/>
+          <a:ext cx="85725" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="3514725"/>
+          <a:ext cx="85725" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4562,29 +4499,23 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>212090</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1207183</xdr:colOff>
+      <xdr:colOff>1200150</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>316230</xdr:rowOff>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3DE20C-2C78-FA82-131D-EC0EF8B61228}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4598,29 +4529,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>BBBBBBBB</a:t>
           </a:r>
@@ -4632,25 +4563,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>212090</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1207183</xdr:colOff>
+      <xdr:colOff>1200150</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>287407</xdr:rowOff>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEC08A5-9A94-DA08-980C-3954F10ABEE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Text Box 2"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4664,29 +4589,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>OOOOOOOO</a:t>
           </a:r>
@@ -4698,25 +4623,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>212090</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1217337</xdr:colOff>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>248285</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5517FC-BB3A-B71D-705B-501E3FA6CACC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4730,29 +4649,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>ZZ,ZZZ,ZZ6.6ZZ</a:t>
           </a:r>
@@ -4764,25 +4683,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>212090</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1217337</xdr:colOff>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D96A6B2-07A1-6DA5-8E55-B63F154D4F5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Text Box 4"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4796,29 +4709,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>ZZZZZZZZ9.ZZ</a:t>
           </a:r>
@@ -4830,25 +4743,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>212090</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>56515</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1217337</xdr:colOff>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Text Box 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8D933B-CF4E-882F-8994-05D49A4E93D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Text Box 5"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4862,29 +4769,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>999999</a:t>
           </a:r>
@@ -4896,25 +4803,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>212090</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1217337</xdr:colOff>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Text Box 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A053BC-52B1-C859-A477-E299E2D2A57A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Text Box 6"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4928,29 +4829,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>666666.66</a:t>
           </a:r>
@@ -4962,25 +4863,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1343660</xdr:colOff>
+      <xdr:colOff>1343025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Text Box 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA44CF5-7D71-9900-379E-61750EAED006}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Text Box 7"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4994,29 +4889,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>HH:MM:SS</a:t>
           </a:r>
@@ -5028,25 +4923,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>189865</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1216660</xdr:colOff>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>247015</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Text Box 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307D7873-5898-A4B3-CC10-4AFD091846AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Text Box 8"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5060,29 +4949,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>YYYY/MM/DD</a:t>
           </a:r>
@@ -5094,25 +4983,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>137795</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1312545</xdr:colOff>
+      <xdr:colOff>1304925</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>267970</xdr:rowOff>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Text Box 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B992E447-5A9A-1B5F-8051-3CAEE2C088A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Text Box 9"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5126,29 +5009,29 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="22860" rtlCol="0" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="ctr" rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
+              <a:latin typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
+              <a:ea typeface="MS PGothic" charset="-128" panose="020B0600070205080204"/>
             </a:rPr>
             <a:t>HH:MM:SS AM/PM</a:t>
           </a:r>
@@ -5420,20 +5303,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="20" customWidth="1"/>
-    <col min="7" max="32" width="4.109375" style="19" customWidth="1"/>
-    <col min="33" max="36" width="4" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="19" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="19" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="19" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="19" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="19" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="19" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="19" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="19" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="19" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="19" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="19" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="19" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="19" customWidth="1"/>
+    <col min="33" max="33" width="4" style="19" customWidth="1"/>
+    <col min="34" max="34" width="4" style="19" customWidth="1"/>
+    <col min="35" max="35" width="4" style="19" customWidth="1"/>
+    <col min="36" max="36" width="4" style="19" customWidth="1"/>
     <col min="37" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" ht="12">
+    <row r="1" ht="12">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -5467,7 +5382,7 @@
       <c r="AE1" s="47"/>
       <c r="AF1" s="47"/>
     </row>
-    <row r="2" spans="1:176" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" customFormat="1" s="18">
       <c r="A2" s="48"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -5645,7 +5560,7 @@
       <c r="FS2" s="41"/>
       <c r="FT2" s="41"/>
     </row>
-    <row r="3" spans="1:176" ht="12.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="26"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -5678,7 +5593,7 @@
       <c r="AE3" s="37"/>
       <c r="AF3" s="43"/>
     </row>
-    <row r="4" spans="1:176" ht="12.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="26"/>
       <c r="B4" s="132" t="s">
         <v>0</v>
@@ -5714,7 +5629,7 @@
       <c r="AE4" s="132"/>
       <c r="AF4" s="43"/>
     </row>
-    <row r="5" spans="1:176" ht="12.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="26"/>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
@@ -5748,7 +5663,7 @@
       <c r="AE5" s="132"/>
       <c r="AF5" s="43"/>
     </row>
-    <row r="6" spans="1:176" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="26"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -5781,7 +5696,7 @@
       <c r="AE6" s="37"/>
       <c r="AF6" s="43"/>
     </row>
-    <row r="7" spans="1:176" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="26"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -5814,7 +5729,7 @@
       <c r="AE7" s="37"/>
       <c r="AF7" s="43"/>
     </row>
-    <row r="8" spans="1:176" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="26"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -5848,7 +5763,7 @@
       <c r="AE8" s="37"/>
       <c r="AF8" s="43"/>
     </row>
-    <row r="9" spans="1:176" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="26"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -5881,7 +5796,7 @@
       <c r="AE9" s="37"/>
       <c r="AF9" s="43"/>
     </row>
-    <row r="10" spans="1:176" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="26"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -5915,7 +5830,7 @@
       <c r="AE10" s="37"/>
       <c r="AF10" s="43"/>
     </row>
-    <row r="11" spans="1:176" ht="12">
+    <row r="11" ht="12">
       <c r="A11" s="26"/>
       <c r="B11" s="149" t="s">
         <v>1</v>
@@ -5959,7 +5874,7 @@
       <c r="AE11" s="151"/>
       <c r="AF11" s="55"/>
     </row>
-    <row r="12" spans="1:176" ht="12">
+    <row r="12" ht="12">
       <c r="A12" s="26"/>
       <c r="B12" s="133" t="s">
         <v>6</v>
@@ -6001,7 +5916,7 @@
       <c r="AE12" s="135"/>
       <c r="AF12" s="55"/>
     </row>
-    <row r="13" spans="1:176" ht="12">
+    <row r="13" ht="12">
       <c r="A13" s="26"/>
       <c r="B13" s="136"/>
       <c r="C13" s="137"/>
@@ -6035,7 +5950,7 @@
       <c r="AE13" s="138"/>
       <c r="AF13" s="55"/>
     </row>
-    <row r="14" spans="1:176" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="26"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -6068,7 +5983,7 @@
       <c r="AE14" s="37"/>
       <c r="AF14" s="43"/>
     </row>
-    <row r="15" spans="1:176" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="26"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -6101,7 +6016,7 @@
       <c r="AE15" s="37"/>
       <c r="AF15" s="43"/>
     </row>
-    <row r="16" spans="1:176" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="26"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -6131,7 +6046,7 @@
       <c r="AE16" s="37"/>
       <c r="AF16" s="43"/>
     </row>
-    <row r="17" spans="1:32" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="26"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -6164,7 +6079,7 @@
       <c r="AE17" s="37"/>
       <c r="AF17" s="43"/>
     </row>
-    <row r="18" spans="1:32" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="26"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -6197,7 +6112,7 @@
       <c r="AE18" s="37"/>
       <c r="AF18" s="43"/>
     </row>
-    <row r="19" spans="1:32" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="26"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -6230,7 +6145,7 @@
       <c r="AE19" s="37"/>
       <c r="AF19" s="43"/>
     </row>
-    <row r="20" spans="1:32" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="26"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -6263,7 +6178,7 @@
       <c r="AE20" s="37"/>
       <c r="AF20" s="43"/>
     </row>
-    <row r="21" spans="1:32" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="26"/>
       <c r="B21" s="50" t="s">
         <v>10</v>
@@ -6298,7 +6213,7 @@
       <c r="AE21" s="37"/>
       <c r="AF21" s="43"/>
     </row>
-    <row r="22" spans="1:32" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="26"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -6331,7 +6246,7 @@
       <c r="AE22" s="37"/>
       <c r="AF22" s="43"/>
     </row>
-    <row r="23" spans="1:32" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="26"/>
       <c r="B23" s="143" t="s">
         <v>11</v>
@@ -6373,7 +6288,7 @@
       <c r="AE23" s="145"/>
       <c r="AF23" s="43"/>
     </row>
-    <row r="24" spans="1:32" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="26"/>
       <c r="B24" s="143" t="s">
         <v>15</v>
@@ -6415,7 +6330,7 @@
       <c r="AE24" s="145"/>
       <c r="AF24" s="43"/>
     </row>
-    <row r="25" spans="1:32" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="26"/>
       <c r="B25" s="143"/>
       <c r="C25" s="144"/>
@@ -6449,7 +6364,7 @@
       <c r="AE25" s="145"/>
       <c r="AF25" s="43"/>
     </row>
-    <row r="26" spans="1:32" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="26"/>
       <c r="B26" s="143"/>
       <c r="C26" s="144"/>
@@ -6483,7 +6398,7 @@
       <c r="AE26" s="145"/>
       <c r="AF26" s="43"/>
     </row>
-    <row r="27" spans="1:32" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="26"/>
       <c r="B27" s="143"/>
       <c r="C27" s="144"/>
@@ -6517,7 +6432,7 @@
       <c r="AE27" s="145"/>
       <c r="AF27" s="43"/>
     </row>
-    <row r="28" spans="1:32" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="26"/>
       <c r="B28" s="143"/>
       <c r="C28" s="144"/>
@@ -6551,7 +6466,7 @@
       <c r="AE28" s="145"/>
       <c r="AF28" s="43"/>
     </row>
-    <row r="29" spans="1:32" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="26"/>
       <c r="B29" s="143"/>
       <c r="C29" s="144"/>
@@ -6585,7 +6500,7 @@
       <c r="AE29" s="145"/>
       <c r="AF29" s="43"/>
     </row>
-    <row r="30" spans="1:32" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="26"/>
       <c r="B30" s="143"/>
       <c r="C30" s="144"/>
@@ -6619,7 +6534,7 @@
       <c r="AE30" s="145"/>
       <c r="AF30" s="43"/>
     </row>
-    <row r="31" spans="1:32" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="26"/>
       <c r="B31" s="143"/>
       <c r="C31" s="144"/>
@@ -6653,7 +6568,7 @@
       <c r="AE31" s="145"/>
       <c r="AF31" s="43"/>
     </row>
-    <row r="32" spans="1:32" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="26"/>
       <c r="B32" s="143"/>
       <c r="C32" s="144"/>
@@ -6687,7 +6602,7 @@
       <c r="AE32" s="145"/>
       <c r="AF32" s="43"/>
     </row>
-    <row r="33" spans="1:32" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="26"/>
       <c r="B33" s="143"/>
       <c r="C33" s="144"/>
@@ -6721,7 +6636,7 @@
       <c r="AE33" s="145"/>
       <c r="AF33" s="43"/>
     </row>
-    <row r="34" spans="1:32" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="26"/>
       <c r="B34" s="143"/>
       <c r="C34" s="144"/>
@@ -6755,7 +6670,7 @@
       <c r="AE34" s="145"/>
       <c r="AF34" s="43"/>
     </row>
-    <row r="35" spans="1:32" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="26"/>
       <c r="B35" s="143"/>
       <c r="C35" s="144"/>
@@ -6789,7 +6704,7 @@
       <c r="AE35" s="145"/>
       <c r="AF35" s="43"/>
     </row>
-    <row r="36" spans="1:32" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="26"/>
       <c r="B36" s="143"/>
       <c r="C36" s="144"/>
@@ -6823,7 +6738,7 @@
       <c r="AE36" s="145"/>
       <c r="AF36" s="43"/>
     </row>
-    <row r="37" spans="1:32" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="26"/>
       <c r="B37" s="143"/>
       <c r="C37" s="144"/>
@@ -6857,7 +6772,7 @@
       <c r="AE37" s="145"/>
       <c r="AF37" s="43"/>
     </row>
-    <row r="38" spans="1:32" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="26"/>
       <c r="B38" s="143"/>
       <c r="C38" s="144"/>
@@ -6891,7 +6806,7 @@
       <c r="AE38" s="145"/>
       <c r="AF38" s="43"/>
     </row>
-    <row r="39" spans="1:32" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="26"/>
       <c r="B39" s="143"/>
       <c r="C39" s="144"/>
@@ -6925,7 +6840,7 @@
       <c r="AE39" s="145"/>
       <c r="AF39" s="43"/>
     </row>
-    <row r="40" spans="1:32" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="26"/>
       <c r="B40" s="143"/>
       <c r="C40" s="144"/>
@@ -6959,7 +6874,7 @@
       <c r="AE40" s="145"/>
       <c r="AF40" s="43"/>
     </row>
-    <row r="41" spans="1:32" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="30"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -6995,6 +6910,17 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AD12:AE13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:AB23"/>
@@ -7067,17 +6993,6 @@
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:AB40"/>
     <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7098,16 +7013,49 @@
       <selection pane="bottomLeft" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="20" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="19" customWidth="1"/>
-    <col min="34" max="37" width="4" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="19" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="19" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="19" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="19" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="19" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="19" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="19" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="19" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="19" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="19" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="19" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="19" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="19" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="19" customWidth="1"/>
+    <col min="34" max="34" width="4" style="19" customWidth="1"/>
+    <col min="35" max="35" width="4" style="19" customWidth="1"/>
+    <col min="36" max="36" width="4" style="19" customWidth="1"/>
+    <col min="37" max="37" width="4" style="19" customWidth="1"/>
     <col min="38" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="154" t="s">
         <v>17</v>
       </c>
@@ -7144,7 +7092,7 @@
       <c r="AF1" s="154"/>
       <c r="AG1" s="154"/>
     </row>
-    <row r="2" spans="1:177" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -7189,9 +7137,9 @@
       </c>
       <c r="AG2" s="151"/>
     </row>
-    <row r="3" spans="1:177" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="133" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
       <c r="B3" s="134"/>
@@ -7200,7 +7148,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="135"/>
       <c r="G3" s="133">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
       <c r="H3" s="134"/>
@@ -7209,7 +7157,7 @@
       <c r="K3" s="134"/>
       <c r="L3" s="135"/>
       <c r="M3" s="139" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>入出庫登録（画面）</v>
       </c>
       <c r="N3" s="152"/>
@@ -7229,17 +7177,17 @@
       <c r="AB3" s="152"/>
       <c r="AC3" s="140"/>
       <c r="AD3" s="133" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="135"/>
       <c r="AF3" s="133" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>篠﨑</v>
       </c>
       <c r="AG3" s="135"/>
     </row>
-    <row r="4" spans="1:177" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="136"/>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
@@ -7274,7 +7222,7 @@
       <c r="AF4" s="136"/>
       <c r="AG4" s="138"/>
     </row>
-    <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="18">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -7453,7 +7401,7 @@
       <c r="FT5" s="41"/>
       <c r="FU5" s="41"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -7488,7 +7436,7 @@
       <c r="AF6" s="25"/>
       <c r="AG6" s="42"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="26"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -7523,7 +7471,7 @@
       <c r="AF7" s="37"/>
       <c r="AG7" s="43"/>
     </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="26"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -7555,7 +7503,7 @@
       <c r="AF8" s="37"/>
       <c r="AG8" s="43"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="26"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -7589,7 +7537,7 @@
       <c r="AF9" s="37"/>
       <c r="AG9" s="43"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="26"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -7623,7 +7571,7 @@
       <c r="AF10" s="37"/>
       <c r="AG10" s="43"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="26"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -7656,7 +7604,7 @@
       <c r="AF11" s="37"/>
       <c r="AG11" s="43"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="26"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -7689,7 +7637,7 @@
       <c r="AF12" s="37"/>
       <c r="AG12" s="43"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="26"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -7721,7 +7669,7 @@
       <c r="AF13" s="37"/>
       <c r="AG13" s="43"/>
     </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="26"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -7755,7 +7703,7 @@
       <c r="AF14" s="37"/>
       <c r="AG14" s="43"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="26"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -7789,7 +7737,7 @@
       <c r="AF15" s="37"/>
       <c r="AG15" s="43"/>
     </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="26"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -7816,7 +7764,7 @@
       <c r="AF16" s="37"/>
       <c r="AG16" s="43"/>
     </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="26"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -7844,7 +7792,7 @@
       <c r="AF17" s="37"/>
       <c r="AG17" s="43"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="26"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -7871,7 +7819,7 @@
       <c r="AF18" s="37"/>
       <c r="AG18" s="43"/>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="26"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -7898,7 +7846,7 @@
       <c r="AF19" s="37"/>
       <c r="AG19" s="43"/>
     </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="26"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -7925,7 +7873,7 @@
       <c r="AF20" s="37"/>
       <c r="AG20" s="43"/>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="26"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -7952,7 +7900,7 @@
       <c r="AF21" s="37"/>
       <c r="AG21" s="43"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="26"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -7979,7 +7927,7 @@
       <c r="AF22" s="37"/>
       <c r="AG22" s="43"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="26"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -8006,7 +7954,7 @@
       <c r="AF23" s="37"/>
       <c r="AG23" s="43"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="26"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -8041,7 +7989,7 @@
       <c r="AF24" s="37"/>
       <c r="AG24" s="43"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="26"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -8076,7 +8024,7 @@
       <c r="AF25" s="37"/>
       <c r="AG25" s="43"/>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="26"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -8111,7 +8059,7 @@
       <c r="AF26" s="37"/>
       <c r="AG26" s="43"/>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="26"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -8146,7 +8094,7 @@
       <c r="AF27" s="37"/>
       <c r="AG27" s="43"/>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="26"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -8181,7 +8129,7 @@
       <c r="AF28" s="37"/>
       <c r="AG28" s="43"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="26"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8216,7 +8164,7 @@
       <c r="AF29" s="37"/>
       <c r="AG29" s="43"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="26"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -8251,7 +8199,7 @@
       <c r="AF30" s="37"/>
       <c r="AG30" s="43"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="26"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -8279,7 +8227,7 @@
       <c r="AF31" s="37"/>
       <c r="AG31" s="43"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="26"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -8313,7 +8261,7 @@
       <c r="AF32" s="37"/>
       <c r="AG32" s="43"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="26"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -8347,7 +8295,7 @@
       <c r="AF33" s="37"/>
       <c r="AG33" s="43"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="26"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -8375,7 +8323,7 @@
       <c r="AF34" s="37"/>
       <c r="AG34" s="43"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="26"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -8402,7 +8350,7 @@
       <c r="AF35" s="37"/>
       <c r="AG35" s="43"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="26"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -8436,7 +8384,7 @@
       <c r="AF36" s="37"/>
       <c r="AG36" s="43"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="26"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -8463,7 +8411,7 @@
       <c r="AF37" s="37"/>
       <c r="AG37" s="43"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="26"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -8498,7 +8446,7 @@
       <c r="AF38" s="37"/>
       <c r="AG38" s="43"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="26"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -8533,7 +8481,7 @@
       <c r="AF39" s="37"/>
       <c r="AG39" s="43"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -8568,7 +8516,7 @@
       <c r="AF40" s="31"/>
       <c r="AG40" s="44"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="46" t="s">
         <v>18</v>
       </c>
@@ -8605,7 +8553,7 @@
       <c r="AF41" s="37"/>
       <c r="AG41" s="43"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="26"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -8640,7 +8588,7 @@
       <c r="AF42" s="37"/>
       <c r="AG42" s="43"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="26"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
@@ -8675,7 +8623,7 @@
       <c r="AF43" s="37"/>
       <c r="AG43" s="43"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -8717,11 +8665,11 @@
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8743,16 +8691,49 @@
       <selection pane="bottomLeft" activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="20" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="19" customWidth="1"/>
-    <col min="34" max="37" width="4" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="19" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="19" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="19" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="19" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="19" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="19" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="19" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="19" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="19" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="19" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="19" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="19" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="19" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="19" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="19" customWidth="1"/>
+    <col min="34" max="34" width="4" style="19" customWidth="1"/>
+    <col min="35" max="35" width="4" style="19" customWidth="1"/>
+    <col min="36" max="36" width="4" style="19" customWidth="1"/>
+    <col min="37" max="37" width="4" style="19" customWidth="1"/>
     <col min="38" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="154" t="s">
         <v>19</v>
       </c>
@@ -8789,7 +8770,7 @@
       <c r="AF1" s="154"/>
       <c r="AG1" s="154"/>
     </row>
-    <row r="2" spans="1:177" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -8834,9 +8815,9 @@
       </c>
       <c r="AG2" s="151"/>
     </row>
-    <row r="3" spans="1:177" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="133" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
       <c r="B3" s="134"/>
@@ -8845,7 +8826,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="135"/>
       <c r="G3" s="133">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
       <c r="H3" s="134"/>
@@ -8854,7 +8835,7 @@
       <c r="K3" s="134"/>
       <c r="L3" s="135"/>
       <c r="M3" s="139" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>入出庫登録（画面）</v>
       </c>
       <c r="N3" s="152"/>
@@ -8874,17 +8855,17 @@
       <c r="AB3" s="152"/>
       <c r="AC3" s="140"/>
       <c r="AD3" s="133" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="135"/>
       <c r="AF3" s="133" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>篠﨑</v>
       </c>
       <c r="AG3" s="135"/>
     </row>
-    <row r="4" spans="1:177" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="136"/>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
@@ -8919,7 +8900,7 @@
       <c r="AF4" s="136"/>
       <c r="AG4" s="138"/>
     </row>
-    <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="18">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -9098,7 +9079,7 @@
       <c r="FT5" s="41"/>
       <c r="FU5" s="41"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -9133,7 +9114,7 @@
       <c r="AF6" s="25"/>
       <c r="AG6" s="42"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="26"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -9168,7 +9149,7 @@
       <c r="AF7" s="27"/>
       <c r="AG7" s="43"/>
     </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -9203,7 +9184,7 @@
       <c r="AF8" s="27"/>
       <c r="AG8" s="43"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -9238,7 +9219,7 @@
       <c r="AF9" s="27"/>
       <c r="AG9" s="43"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -9273,7 +9254,7 @@
       <c r="AF10" s="27"/>
       <c r="AG10" s="43"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="26"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -9308,7 +9289,7 @@
       <c r="AF11" s="27"/>
       <c r="AG11" s="43"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -9343,7 +9324,7 @@
       <c r="AF12" s="27"/>
       <c r="AG12" s="43"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -9378,7 +9359,7 @@
       <c r="AF13" s="27"/>
       <c r="AG13" s="43"/>
     </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="26"/>
       <c r="B14" s="155"/>
       <c r="C14" s="155"/>
@@ -9413,7 +9394,7 @@
       <c r="AF14" s="27"/>
       <c r="AG14" s="43"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="26"/>
       <c r="B15" s="156"/>
       <c r="C15" s="156"/>
@@ -9452,7 +9433,7 @@
       <c r="AF15" s="36"/>
       <c r="AG15" s="43"/>
     </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -9487,7 +9468,7 @@
       <c r="AF16" s="36"/>
       <c r="AG16" s="43"/>
     </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -9526,7 +9507,7 @@
       <c r="AF17" s="36"/>
       <c r="AG17" s="43"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -9561,7 +9542,7 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="43"/>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -9596,7 +9577,7 @@
       <c r="AF19" s="36"/>
       <c r="AG19" s="43"/>
     </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -9631,7 +9612,7 @@
       <c r="AF20" s="36"/>
       <c r="AG20" s="43"/>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -9666,7 +9647,7 @@
       <c r="AF21" s="36"/>
       <c r="AG21" s="43"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -9701,7 +9682,7 @@
       <c r="AF22" s="36"/>
       <c r="AG22" s="43"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -9736,7 +9717,7 @@
       <c r="AF23" s="36"/>
       <c r="AG23" s="43"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -9771,7 +9752,7 @@
       <c r="AF24" s="36"/>
       <c r="AG24" s="43"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -9806,7 +9787,7 @@
       <c r="AF25" s="36"/>
       <c r="AG25" s="43"/>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -9841,7 +9822,7 @@
       <c r="AF26" s="36"/>
       <c r="AG26" s="43"/>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -9876,7 +9857,7 @@
       <c r="AF27" s="36"/>
       <c r="AG27" s="43"/>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -9911,7 +9892,7 @@
       <c r="AF28" s="36"/>
       <c r="AG28" s="43"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -9946,7 +9927,7 @@
       <c r="AF29" s="36"/>
       <c r="AG29" s="43"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -9981,7 +9962,7 @@
       <c r="AF30" s="36"/>
       <c r="AG30" s="43"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -10016,7 +9997,7 @@
       <c r="AF31" s="36"/>
       <c r="AG31" s="43"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -10051,7 +10032,7 @@
       <c r="AF32" s="36"/>
       <c r="AG32" s="43"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -10086,7 +10067,7 @@
       <c r="AF33" s="36"/>
       <c r="AG33" s="43"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -10121,7 +10102,7 @@
       <c r="AF34" s="36"/>
       <c r="AG34" s="43"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -10156,7 +10137,7 @@
       <c r="AF35" s="36"/>
       <c r="AG35" s="43"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="26"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -10191,7 +10172,7 @@
       <c r="AF36" s="36"/>
       <c r="AG36" s="43"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -10226,7 +10207,7 @@
       <c r="AF37" s="36"/>
       <c r="AG37" s="43"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -10261,7 +10242,7 @@
       <c r="AF38" s="36"/>
       <c r="AG38" s="43"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -10296,7 +10277,7 @@
       <c r="AF39" s="36"/>
       <c r="AG39" s="43"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -10331,7 +10312,7 @@
       <c r="AF40" s="36"/>
       <c r="AG40" s="43"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="26"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -10366,7 +10347,7 @@
       <c r="AF41" s="36"/>
       <c r="AG41" s="43"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -10401,7 +10382,7 @@
       <c r="AF42" s="27"/>
       <c r="AG42" s="43"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="26"/>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
@@ -10419,7 +10400,7 @@
       <c r="AF43" s="37"/>
       <c r="AG43" s="43"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -10461,24 +10442,24 @@
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AE14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="V15:X15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="Y14:AE14"/>
-    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -10500,16 +10481,49 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="58" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="86" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="58" customWidth="1"/>
-    <col min="34" max="37" width="4" style="58" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="86" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="86" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="58" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="58" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="58" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="58" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="58" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="58" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="58" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="58" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="58" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="58" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="58" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="58" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="58" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="58" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="58" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="58" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="58" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="58" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="58" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="58" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="58" customWidth="1"/>
+    <col min="34" max="34" width="4" style="58" customWidth="1"/>
+    <col min="35" max="35" width="4" style="58" customWidth="1"/>
+    <col min="36" max="36" width="4" style="58" customWidth="1"/>
+    <col min="37" max="37" width="4" style="58" customWidth="1"/>
     <col min="38" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="184" t="s">
         <v>19</v>
       </c>
@@ -10546,7 +10560,7 @@
       <c r="AF1" s="184"/>
       <c r="AG1" s="184"/>
     </row>
-    <row r="2" spans="1:177" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="185" t="s">
         <v>1</v>
       </c>
@@ -10591,9 +10605,9 @@
       </c>
       <c r="AG2" s="187"/>
     </row>
-    <row r="3" spans="1:177" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="165" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
       <c r="B3" s="166"/>
@@ -10602,7 +10616,7 @@
       <c r="E3" s="166"/>
       <c r="F3" s="167"/>
       <c r="G3" s="165">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
       <c r="H3" s="166"/>
@@ -10611,7 +10625,7 @@
       <c r="K3" s="166"/>
       <c r="L3" s="167"/>
       <c r="M3" s="171" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>入出庫登録（画面）</v>
       </c>
       <c r="N3" s="172"/>
@@ -10631,17 +10645,17 @@
       <c r="AB3" s="172"/>
       <c r="AC3" s="173"/>
       <c r="AD3" s="165" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="167"/>
       <c r="AF3" s="165" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>篠﨑</v>
       </c>
       <c r="AG3" s="167"/>
     </row>
-    <row r="4" spans="1:177" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="168"/>
       <c r="B4" s="169"/>
       <c r="C4" s="169"/>
@@ -10676,7 +10690,7 @@
       <c r="AF4" s="168"/>
       <c r="AG4" s="170"/>
     </row>
-    <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="68">
       <c r="A5" s="61"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -10855,7 +10869,7 @@
       <c r="FT5" s="67"/>
       <c r="FU5" s="67"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="69"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -10890,7 +10904,7 @@
       <c r="AF6" s="70"/>
       <c r="AG6" s="71"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="72"/>
       <c r="B7" s="73"/>
       <c r="C7" s="56" t="s">
@@ -10935,7 +10949,7 @@
       <c r="AF7" s="73"/>
       <c r="AG7" s="77"/>
     </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="72"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -10970,7 +10984,7 @@
       <c r="AF8" s="73"/>
       <c r="AG8" s="77"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="56" t="s">
@@ -11017,7 +11031,7 @@
       <c r="AF9" s="73"/>
       <c r="AG9" s="77"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="72"/>
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
@@ -11052,7 +11066,7 @@
       <c r="AF10" s="73"/>
       <c r="AG10" s="77"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
@@ -11087,7 +11101,7 @@
       <c r="AF11" s="73"/>
       <c r="AG11" s="77"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="72"/>
       <c r="B12" s="179" t="s">
         <v>32</v>
@@ -11126,7 +11140,7 @@
       <c r="AF12" s="73"/>
       <c r="AG12" s="77"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="73"/>
@@ -11161,7 +11175,7 @@
       <c r="AF13" s="73"/>
       <c r="AG13" s="77"/>
     </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="72"/>
       <c r="B14" s="159" t="s">
         <v>34</v>
@@ -11173,25 +11187,25 @@
       <c r="E14" s="180"/>
       <c r="F14" s="180"/>
       <c r="G14" s="180" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H14" s="180"/>
       <c r="I14" s="180"/>
       <c r="J14" s="180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="180"/>
       <c r="L14" s="180"/>
       <c r="M14" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" s="180"/>
       <c r="O14" s="180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="180"/>
       <c r="Q14" s="177" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R14" s="177"/>
       <c r="S14" s="177"/>
@@ -11205,7 +11219,7 @@
       <c r="Y14" s="177"/>
       <c r="Z14" s="177"/>
       <c r="AA14" s="182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB14" s="183"/>
       <c r="AC14" s="183"/>
@@ -11213,24 +11227,24 @@
       <c r="AE14" s="91"/>
       <c r="AG14" s="92"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="72"/>
       <c r="B15" s="159" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="160"/>
       <c r="D15" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="75"/>
       <c r="F15" s="76"/>
       <c r="G15" s="75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H15" s="75"/>
       <c r="I15" s="93"/>
       <c r="J15" s="75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15" s="75"/>
       <c r="L15" s="76"/>
@@ -11239,39 +11253,39 @@
       </c>
       <c r="N15" s="164"/>
       <c r="O15" s="161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P15" s="162"/>
       <c r="Q15" s="177" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R15" s="177"/>
       <c r="S15" s="177"/>
       <c r="T15" s="177"/>
       <c r="U15" s="160"/>
       <c r="V15" s="94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
       <c r="Y15" s="75"/>
       <c r="Z15" s="76"/>
       <c r="AA15" s="113" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB15" s="114" t="s">
         <v>33</v>
       </c>
       <c r="AC15" s="178" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD15" s="178"/>
       <c r="AE15" s="95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG15" s="92"/>
     </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="72"/>
       <c r="B16" s="96"/>
       <c r="C16" s="73"/>
@@ -11305,7 +11319,7 @@
       <c r="AE16" s="95"/>
       <c r="AG16" s="92"/>
     </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="72"/>
       <c r="B17" s="96"/>
       <c r="C17" s="73"/>
@@ -11338,7 +11352,7 @@
       <c r="AE17" s="95"/>
       <c r="AG17" s="92"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="72"/>
       <c r="B18" s="96"/>
       <c r="C18" s="73"/>
@@ -11371,7 +11385,7 @@
       <c r="AE18" s="95"/>
       <c r="AG18" s="92"/>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="72"/>
       <c r="B19" s="96"/>
       <c r="C19" s="73"/>
@@ -11404,7 +11418,7 @@
       <c r="AE19" s="95"/>
       <c r="AG19" s="92"/>
     </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="72"/>
       <c r="B20" s="96"/>
       <c r="C20" s="73"/>
@@ -11437,7 +11451,7 @@
       <c r="AE20" s="95"/>
       <c r="AG20" s="92"/>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="72"/>
       <c r="B21" s="96"/>
       <c r="C21" s="73"/>
@@ -11470,7 +11484,7 @@
       <c r="AE21" s="95"/>
       <c r="AG21" s="92"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="72"/>
       <c r="B22" s="96"/>
       <c r="C22" s="73"/>
@@ -11503,7 +11517,7 @@
       <c r="AE22" s="95"/>
       <c r="AG22" s="92"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="72"/>
       <c r="B23" s="96"/>
       <c r="C23" s="73"/>
@@ -11536,7 +11550,7 @@
       <c r="AE23" s="95"/>
       <c r="AG23" s="92"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="72"/>
       <c r="B24" s="96"/>
       <c r="C24" s="73"/>
@@ -11569,7 +11583,7 @@
       <c r="AE24" s="95"/>
       <c r="AG24" s="92"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="72"/>
       <c r="B25" s="96"/>
       <c r="C25" s="73"/>
@@ -11602,7 +11616,7 @@
       <c r="AE25" s="95"/>
       <c r="AG25" s="92"/>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="72"/>
       <c r="B26" s="96"/>
       <c r="C26" s="73"/>
@@ -11635,7 +11649,7 @@
       <c r="AE26" s="95"/>
       <c r="AG26" s="92"/>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="72"/>
       <c r="B27" s="96"/>
       <c r="C27" s="73"/>
@@ -11668,7 +11682,7 @@
       <c r="AE27" s="95"/>
       <c r="AG27" s="92"/>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="72"/>
       <c r="B28" s="96"/>
       <c r="C28" s="73"/>
@@ -11701,7 +11715,7 @@
       <c r="AE28" s="95"/>
       <c r="AG28" s="92"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="72"/>
       <c r="B29" s="96"/>
       <c r="C29" s="73"/>
@@ -11734,7 +11748,7 @@
       <c r="AE29" s="95"/>
       <c r="AG29" s="92"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="72"/>
       <c r="B30" s="96"/>
       <c r="C30" s="73"/>
@@ -11767,7 +11781,7 @@
       <c r="AE30" s="95"/>
       <c r="AG30" s="92"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="72"/>
       <c r="B31" s="96"/>
       <c r="C31" s="73"/>
@@ -11800,7 +11814,7 @@
       <c r="AE31" s="95"/>
       <c r="AG31" s="92"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="72"/>
       <c r="B32" s="96"/>
       <c r="C32" s="73"/>
@@ -11833,7 +11847,7 @@
       <c r="AE32" s="95"/>
       <c r="AG32" s="92"/>
     </row>
-    <row r="33" spans="1:36" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="72"/>
       <c r="B33" s="96"/>
       <c r="C33" s="73"/>
@@ -11866,7 +11880,7 @@
       <c r="AE33" s="95"/>
       <c r="AG33" s="92"/>
     </row>
-    <row r="34" spans="1:36" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="72"/>
       <c r="B34" s="96"/>
       <c r="C34" s="73"/>
@@ -11900,7 +11914,7 @@
       <c r="AG34" s="92"/>
       <c r="AJ34" s="104"/>
     </row>
-    <row r="35" spans="1:36" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="72"/>
       <c r="B35" s="96"/>
       <c r="C35" s="73"/>
@@ -11933,7 +11947,7 @@
       <c r="AE35" s="95"/>
       <c r="AG35" s="92"/>
     </row>
-    <row r="36" spans="1:36" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="72"/>
       <c r="B36" s="96"/>
       <c r="C36" s="73"/>
@@ -11966,7 +11980,7 @@
       <c r="AE36" s="95"/>
       <c r="AG36" s="92"/>
     </row>
-    <row r="37" spans="1:36" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="72"/>
       <c r="B37" s="96"/>
       <c r="C37" s="73"/>
@@ -11999,7 +12013,7 @@
       <c r="AE37" s="95"/>
       <c r="AG37" s="92"/>
     </row>
-    <row r="38" spans="1:36" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="72"/>
       <c r="B38" s="96"/>
       <c r="C38" s="73"/>
@@ -12032,7 +12046,7 @@
       <c r="AE38" s="95"/>
       <c r="AG38" s="92"/>
     </row>
-    <row r="39" spans="1:36" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="72"/>
       <c r="B39" s="96"/>
       <c r="C39" s="73"/>
@@ -12065,7 +12079,7 @@
       <c r="AE39" s="95"/>
       <c r="AG39" s="92"/>
     </row>
-    <row r="40" spans="1:36" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="72"/>
       <c r="B40" s="96"/>
       <c r="C40" s="73"/>
@@ -12098,7 +12112,7 @@
       <c r="AE40" s="95"/>
       <c r="AG40" s="92"/>
     </row>
-    <row r="41" spans="1:36" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="72"/>
       <c r="B41" s="105"/>
       <c r="C41" s="106"/>
@@ -12130,11 +12144,11 @@
       <c r="AC41" s="111"/>
       <c r="AD41" s="89"/>
       <c r="AE41" s="112" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AG41" s="92"/>
     </row>
-    <row r="42" spans="1:36" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="72"/>
       <c r="B42" s="73"/>
       <c r="C42" s="73"/>
@@ -12169,7 +12183,7 @@
       <c r="AF42" s="73"/>
       <c r="AG42" s="77"/>
     </row>
-    <row r="43" spans="1:36" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="72"/>
       <c r="S43" s="66"/>
       <c r="T43" s="66"/>
@@ -12187,7 +12201,7 @@
       <c r="AF43" s="66"/>
       <c r="AG43" s="77"/>
     </row>
-    <row r="44" spans="1:36" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="87"/>
       <c r="B44" s="88"/>
       <c r="C44" s="88"/>
@@ -12229,29 +12243,29 @@
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
     <mergeCell ref="V14:Z14"/>
     <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O15:P15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
     <mergeCell ref="Q15:U15"/>
     <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12267,21 +12281,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="K13" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
+      <pane ySplit="5" topLeftCell="K6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="58" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="86" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="58" customWidth="1"/>
-    <col min="34" max="37" width="4" style="58" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="86" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="86" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="58" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="58" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="58" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="58" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="58" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="58" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="58" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="58" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="58" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="58" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="58" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="58" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="58" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="58" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="58" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="58" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="58" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="58" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="58" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="58" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="58" customWidth="1"/>
+    <col min="34" max="34" width="4" style="58" customWidth="1"/>
+    <col min="35" max="35" width="4" style="58" customWidth="1"/>
+    <col min="36" max="36" width="4" style="58" customWidth="1"/>
+    <col min="37" max="37" width="4" style="58" customWidth="1"/>
     <col min="38" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="184" t="s">
         <v>19</v>
       </c>
@@ -12318,7 +12365,7 @@
       <c r="AF1" s="184"/>
       <c r="AG1" s="184"/>
     </row>
-    <row r="2" spans="1:177" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="185" t="s">
         <v>1</v>
       </c>
@@ -12363,9 +12410,9 @@
       </c>
       <c r="AG2" s="187"/>
     </row>
-    <row r="3" spans="1:177" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="165" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
       <c r="B3" s="166"/>
@@ -12374,7 +12421,7 @@
       <c r="E3" s="166"/>
       <c r="F3" s="167"/>
       <c r="G3" s="165">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
       <c r="H3" s="166"/>
@@ -12383,7 +12430,7 @@
       <c r="K3" s="166"/>
       <c r="L3" s="167"/>
       <c r="M3" s="171" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>入出庫登録（画面）</v>
       </c>
       <c r="N3" s="172"/>
@@ -12403,17 +12450,17 @@
       <c r="AB3" s="172"/>
       <c r="AC3" s="173"/>
       <c r="AD3" s="165" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="167"/>
       <c r="AF3" s="165" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>篠﨑</v>
       </c>
       <c r="AG3" s="167"/>
     </row>
-    <row r="4" spans="1:177" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="168"/>
       <c r="B4" s="169"/>
       <c r="C4" s="169"/>
@@ -12448,7 +12495,7 @@
       <c r="AF4" s="168"/>
       <c r="AG4" s="170"/>
     </row>
-    <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="68">
       <c r="A5" s="61"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -12627,7 +12674,7 @@
       <c r="FT5" s="67"/>
       <c r="FU5" s="67"/>
     </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="69"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -12662,17 +12709,17 @@
       <c r="AF6" s="70"/>
       <c r="AG6" s="71"/>
     </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="72"/>
       <c r="B7" s="73"/>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
       <c r="G7" s="56" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="K7" s="74" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L7" s="75"/>
       <c r="M7" s="75"/>
@@ -12694,7 +12741,7 @@
       <c r="AG7" s="77"/>
       <c r="AI7" s="73"/>
     </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="72"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -12722,17 +12769,17 @@
       <c r="AF8" s="73"/>
       <c r="AG8" s="77"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="F9" s="78"/>
       <c r="G9" s="190" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="191"/>
       <c r="I9" s="191"/>
       <c r="K9" s="74" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L9" s="75"/>
       <c r="M9" s="75"/>
@@ -12754,7 +12801,7 @@
       <c r="AF9" s="73"/>
       <c r="AG9" s="77"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="72"/>
       <c r="B10" s="73"/>
       <c r="C10" s="78"/>
@@ -12785,17 +12832,17 @@
       <c r="AF10" s="73"/>
       <c r="AG10" s="77"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="F11" s="78"/>
       <c r="G11" s="192" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H11" s="193"/>
       <c r="I11" s="193"/>
       <c r="K11" s="74" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L11" s="75"/>
       <c r="M11" s="75"/>
@@ -12819,7 +12866,7 @@
       <c r="AF11" s="73"/>
       <c r="AG11" s="77"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="72"/>
       <c r="B12" s="73"/>
       <c r="C12" s="78"/>
@@ -12850,18 +12897,18 @@
       <c r="AF12" s="73"/>
       <c r="AG12" s="77"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="E13" s="78"/>
       <c r="F13" s="81"/>
       <c r="G13" s="191" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H13" s="193"/>
       <c r="I13" s="79"/>
       <c r="K13" s="194" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L13" s="195"/>
       <c r="M13" s="195"/>
@@ -12886,7 +12933,7 @@
       <c r="AF13" s="73"/>
       <c r="AG13" s="77"/>
     </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="72"/>
       <c r="B14" s="73"/>
       <c r="C14" s="78"/>
@@ -12917,7 +12964,7 @@
       <c r="AF14" s="73"/>
       <c r="AG14" s="77"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="72"/>
       <c r="B15" s="83"/>
       <c r="C15" s="73"/>
@@ -12952,7 +12999,7 @@
       <c r="AF15" s="80"/>
       <c r="AG15" s="77"/>
     </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="72"/>
       <c r="B16" s="73"/>
       <c r="C16" s="78"/>
@@ -12962,7 +13009,7 @@
       <c r="G16" s="79"/>
       <c r="H16" s="79"/>
       <c r="I16" s="178" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J16" s="178"/>
       <c r="K16" s="73"/>
@@ -12988,7 +13035,7 @@
       <c r="AF16" s="80"/>
       <c r="AG16" s="77"/>
     </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -13023,7 +13070,7 @@
       <c r="AF17" s="80"/>
       <c r="AG17" s="77"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="72"/>
       <c r="B18" s="73"/>
       <c r="C18" s="78"/>
@@ -13058,7 +13105,7 @@
       <c r="AF18" s="80"/>
       <c r="AG18" s="77"/>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -13093,7 +13140,7 @@
       <c r="AF19" s="80"/>
       <c r="AG19" s="77"/>
     </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="72"/>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -13128,7 +13175,7 @@
       <c r="AF20" s="80"/>
       <c r="AG20" s="77"/>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
@@ -13163,7 +13210,7 @@
       <c r="AF21" s="80"/>
       <c r="AG21" s="77"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="72"/>
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
@@ -13198,7 +13245,7 @@
       <c r="AF22" s="80"/>
       <c r="AG22" s="77"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="72"/>
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
@@ -13233,7 +13280,7 @@
       <c r="AF23" s="80"/>
       <c r="AG23" s="77"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="72"/>
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
@@ -13268,7 +13315,7 @@
       <c r="AF24" s="80"/>
       <c r="AG24" s="77"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="72"/>
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
@@ -13303,7 +13350,7 @@
       <c r="AF25" s="80"/>
       <c r="AG25" s="77"/>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="72"/>
       <c r="B26" s="73"/>
       <c r="C26" s="73"/>
@@ -13338,7 +13385,7 @@
       <c r="AF26" s="80"/>
       <c r="AG26" s="77"/>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="72"/>
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
@@ -13373,7 +13420,7 @@
       <c r="AF27" s="80"/>
       <c r="AG27" s="77"/>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="72"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
@@ -13408,7 +13455,7 @@
       <c r="AF28" s="80"/>
       <c r="AG28" s="77"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="72"/>
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
@@ -13443,7 +13490,7 @@
       <c r="AF29" s="80"/>
       <c r="AG29" s="77"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="72"/>
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
@@ -13478,7 +13525,7 @@
       <c r="AF30" s="80"/>
       <c r="AG30" s="77"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="72"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -13513,7 +13560,7 @@
       <c r="AF31" s="80"/>
       <c r="AG31" s="77"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="72"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -13548,7 +13595,7 @@
       <c r="AF32" s="80"/>
       <c r="AG32" s="77"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="72"/>
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
@@ -13583,7 +13630,7 @@
       <c r="AF33" s="80"/>
       <c r="AG33" s="77"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="72"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -13618,7 +13665,7 @@
       <c r="AF34" s="80"/>
       <c r="AG34" s="77"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="72"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -13653,7 +13700,7 @@
       <c r="AF35" s="80"/>
       <c r="AG35" s="77"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="72"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
@@ -13688,7 +13735,7 @@
       <c r="AF36" s="80"/>
       <c r="AG36" s="77"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="72"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
@@ -13723,7 +13770,7 @@
       <c r="AF37" s="80"/>
       <c r="AG37" s="77"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="72"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
@@ -13758,7 +13805,7 @@
       <c r="AF38" s="80"/>
       <c r="AG38" s="77"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="72"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
@@ -13793,7 +13840,7 @@
       <c r="AF39" s="80"/>
       <c r="AG39" s="77"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="72"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
@@ -13828,7 +13875,7 @@
       <c r="AF40" s="80"/>
       <c r="AG40" s="77"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="72"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
@@ -13863,7 +13910,7 @@
       <c r="AF41" s="80"/>
       <c r="AG41" s="77"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="72"/>
       <c r="B42" s="73"/>
       <c r="C42" s="73"/>
@@ -13898,7 +13945,7 @@
       <c r="AF42" s="73"/>
       <c r="AG42" s="77"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="72"/>
       <c r="S43" s="66"/>
       <c r="T43" s="66"/>
@@ -13916,7 +13963,7 @@
       <c r="AF43" s="66"/>
       <c r="AG43" s="77"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="87"/>
       <c r="B44" s="88"/>
       <c r="C44" s="88"/>
@@ -13953,22 +14000,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="K13:T13"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13990,18 +14037,51 @@
       <selection pane="bottomLeft" activeCell="AF3" sqref="AF3:AG4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="58" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="86" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="58" customWidth="1"/>
-    <col min="34" max="37" width="4" style="58" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="86" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="86" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="58" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="58" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="58" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="58" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="58" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="58" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="58" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="58" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="58" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="58" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="58" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="58" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="58" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="58" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="58" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="58" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="58" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="58" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="58" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="58" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="58" customWidth="1"/>
+    <col min="34" max="34" width="4" style="58" customWidth="1"/>
+    <col min="35" max="35" width="4" style="58" customWidth="1"/>
+    <col min="36" max="36" width="4" style="58" customWidth="1"/>
+    <col min="37" max="37" width="4" style="58" customWidth="1"/>
     <col min="38" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="184" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" s="184"/>
       <c r="C1" s="184"/>
@@ -14036,7 +14116,7 @@
       <c r="AF1" s="184"/>
       <c r="AG1" s="184"/>
     </row>
-    <row r="2" spans="1:177" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="185" t="s">
         <v>1</v>
       </c>
@@ -14081,9 +14161,9 @@
       </c>
       <c r="AG2" s="187"/>
     </row>
-    <row r="3" spans="1:177" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="165" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
       <c r="B3" s="166"/>
@@ -14092,7 +14172,7 @@
       <c r="E3" s="166"/>
       <c r="F3" s="167"/>
       <c r="G3" s="165">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
       <c r="H3" s="166"/>
@@ -14101,7 +14181,7 @@
       <c r="K3" s="166"/>
       <c r="L3" s="167"/>
       <c r="M3" s="171" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>入出庫登録（画面）</v>
       </c>
       <c r="N3" s="172"/>
@@ -14121,16 +14201,16 @@
       <c r="AB3" s="172"/>
       <c r="AC3" s="173"/>
       <c r="AD3" s="165" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="167"/>
       <c r="AF3" s="165" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AG3" s="167"/>
     </row>
-    <row r="4" spans="1:177" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="168"/>
       <c r="B4" s="169"/>
       <c r="C4" s="169"/>
@@ -14165,7 +14245,7 @@
       <c r="AF4" s="168"/>
       <c r="AG4" s="170"/>
     </row>
-    <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="68">
       <c r="A5" s="61"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -14344,7 +14424,7 @@
       <c r="FT5" s="67"/>
       <c r="FU5" s="67"/>
     </row>
-    <row r="6" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" customFormat="1" s="68">
       <c r="A6" s="119"/>
       <c r="B6" s="120"/>
       <c r="C6" s="116"/>
@@ -14523,7 +14603,7 @@
       <c r="FT6" s="67"/>
       <c r="FU6" s="67"/>
     </row>
-    <row r="7" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" customFormat="1" s="68">
       <c r="A7" s="124"/>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
@@ -14702,7 +14782,7 @@
       <c r="FT7" s="67"/>
       <c r="FU7" s="67"/>
     </row>
-    <row r="8" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" customFormat="1" s="68">
       <c r="A8" s="124"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -14881,171 +14961,171 @@
       <c r="FT8" s="67"/>
       <c r="FU8" s="67"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="72"/>
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
       <c r="AT9" s="117" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="72"/>
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
       <c r="AT10" s="58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="72"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58"/>
       <c r="AT11" s="58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="72"/>
       <c r="E12" s="58"/>
       <c r="F12" s="58"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="72"/>
       <c r="E13" s="58"/>
       <c r="F13" s="58"/>
     </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="72"/>
       <c r="E14" s="58"/>
       <c r="F14" s="58"/>
     </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="72"/>
       <c r="E15" s="58"/>
       <c r="F15" s="58"/>
     </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="72"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="72"/>
       <c r="E17" s="58"/>
       <c r="F17" s="58"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+    <row r="18" customHeight="1" ht="16">
       <c r="A18" s="72"/>
       <c r="E18" s="58"/>
       <c r="F18" s="58"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="72"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="72"/>
       <c r="E20" s="58"/>
       <c r="F20" s="58"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="72"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="72"/>
       <c r="E22" s="58"/>
       <c r="F22" s="58"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="72"/>
       <c r="E23" s="58"/>
       <c r="F23" s="58"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="72"/>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="72"/>
       <c r="E25" s="58"/>
       <c r="F25" s="58"/>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="72"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="72"/>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="72"/>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="72"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="72"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="72"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="72"/>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="72"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="72"/>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="72"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="72"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58"/>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="72"/>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="72"/>
       <c r="E38" s="58"/>
       <c r="F38" s="58"/>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="72"/>
       <c r="E39" s="58"/>
       <c r="F39" s="58"/>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="87"/>
       <c r="E40" s="58"/>
       <c r="F40" s="58"/>
@@ -15077,23 +15157,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:FU57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" tabSelected="1" topLeftCell="A1">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z16" sqref="Z16"/>
+      <selection pane="bottomLeft" activeCell="X34" sqref="X34" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="58" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="86" customWidth="1"/>
-    <col min="7" max="11" width="4.109375" style="58" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="86" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="86" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="58" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="58" customWidth="1"/>
     <col min="12" max="12" width="9" style="58" customWidth="1"/>
-    <col min="13" max="33" width="4.109375" style="58" customWidth="1"/>
-    <col min="34" max="37" width="4" style="58" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="58" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="58" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="58" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="58" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="58" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="58" customWidth="1"/>
+    <col min="19" max="19" width="4.109375" style="58" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" style="58" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="58" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" style="58" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="58" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="58" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="58" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="58" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="58" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="58" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="58" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="58" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" style="58" customWidth="1"/>
+    <col min="32" max="32" width="4.109375" style="58" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="58" customWidth="1"/>
+    <col min="34" max="34" width="4" style="58" customWidth="1"/>
+    <col min="35" max="35" width="4" style="58" customWidth="1"/>
+    <col min="36" max="36" width="4" style="58" customWidth="1"/>
+    <col min="37" max="37" width="4" style="58" customWidth="1"/>
     <col min="38" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="184" t="s">
         <v>19</v>
       </c>
@@ -15130,7 +15241,7 @@
       <c r="AF1" s="184"/>
       <c r="AG1" s="184"/>
     </row>
-    <row r="2" spans="1:177" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="185" t="s">
         <v>1</v>
       </c>
@@ -15175,9 +15286,9 @@
       </c>
       <c r="AG2" s="187"/>
     </row>
-    <row r="3" spans="1:177" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="165" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>倉庫管理システム</v>
       </c>
       <c r="B3" s="166"/>
@@ -15186,7 +15297,7 @@
       <c r="E3" s="166"/>
       <c r="F3" s="167"/>
       <c r="G3" s="165">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>0</v>
       </c>
       <c r="H3" s="166"/>
@@ -15195,7 +15306,7 @@
       <c r="K3" s="166"/>
       <c r="L3" s="167"/>
       <c r="M3" s="171" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>入出庫登録（画面）</v>
       </c>
       <c r="N3" s="172"/>
@@ -15215,16 +15326,16 @@
       <c r="AB3" s="172"/>
       <c r="AC3" s="173"/>
       <c r="AD3" s="165" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="167"/>
       <c r="AF3" s="165" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AG3" s="167"/>
     </row>
-    <row r="4" spans="1:177" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="168"/>
       <c r="B4" s="169"/>
       <c r="C4" s="169"/>
@@ -15259,7 +15370,7 @@
       <c r="AF4" s="168"/>
       <c r="AG4" s="170"/>
     </row>
-    <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" customFormat="1" s="68">
       <c r="A5" s="61"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -15438,7 +15549,7 @@
       <c r="FT5" s="67"/>
       <c r="FU5" s="67"/>
     </row>
-    <row r="6" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" customFormat="1" s="68">
       <c r="A6" s="119"/>
       <c r="B6" s="120"/>
       <c r="C6" s="116"/>
@@ -15617,14 +15728,14 @@
       <c r="FT6" s="67"/>
       <c r="FU6" s="67"/>
     </row>
-    <row r="7" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" customFormat="1" s="68">
       <c r="A7" s="124"/>
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
       <c r="D7" s="125"/>
       <c r="E7" s="125"/>
       <c r="F7" s="216" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G7" s="217"/>
       <c r="H7" s="217"/>
@@ -15798,7 +15909,7 @@
       <c r="FT7" s="67"/>
       <c r="FU7" s="67"/>
     </row>
-    <row r="8" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" customFormat="1" s="68">
       <c r="A8" s="124"/>
       <c r="B8" s="124"/>
       <c r="C8" s="125"/>
@@ -15846,7 +15957,7 @@
       <c r="AS8" s="67"/>
       <c r="AT8" s="67"/>
       <c r="AU8" s="131" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AV8" s="67"/>
       <c r="AW8" s="67"/>
@@ -15979,7 +16090,7 @@
       <c r="FT8" s="67"/>
       <c r="FU8" s="67"/>
     </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="72"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
@@ -16014,20 +16125,20 @@
       <c r="AF9" s="66"/>
       <c r="AG9" s="128"/>
       <c r="AI9" s="58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AU9" s="58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="72"/>
       <c r="B10" s="73"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
       <c r="F10" s="73"/>
       <c r="G10" s="198" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H10" s="199"/>
       <c r="I10" s="199"/>
@@ -16048,13 +16159,13 @@
       <c r="AG10" s="77"/>
       <c r="AH10" s="129"/>
       <c r="AI10" s="58" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AU10" s="58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="D11" s="73"/>
@@ -16079,7 +16190,7 @@
       <c r="AF11" s="73"/>
       <c r="AG11" s="77"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="72"/>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
@@ -16105,15 +16216,15 @@
       <c r="AF12" s="73"/>
       <c r="AG12" s="77"/>
       <c r="AI12" s="58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="F13" s="78"/>
       <c r="G13" s="198" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="H13" s="199"/>
       <c r="I13" s="199"/>
@@ -16133,10 +16244,10 @@
       <c r="AF13" s="73"/>
       <c r="AG13" s="77"/>
       <c r="AI13" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="72"/>
       <c r="B14" s="73"/>
       <c r="F14" s="78"/>
@@ -16159,10 +16270,10 @@
       <c r="AF14" s="73"/>
       <c r="AG14" s="77"/>
       <c r="AI14" s="58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="78"/>
@@ -16188,15 +16299,15 @@
       <c r="AF15" s="73"/>
       <c r="AG15" s="77"/>
       <c r="AI15" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="72"/>
       <c r="B16" s="73"/>
       <c r="F16" s="78"/>
       <c r="G16" s="207" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H16" s="208"/>
       <c r="I16" s="208"/>
@@ -16216,10 +16327,10 @@
       <c r="AF16" s="73"/>
       <c r="AG16" s="77"/>
       <c r="AI16" s="58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="12.75" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="F17" s="78"/>
@@ -16242,10 +16353,10 @@
       <c r="AF17" s="73"/>
       <c r="AG17" s="77"/>
       <c r="AI17" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="12.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="72"/>
       <c r="B18" s="73"/>
       <c r="C18" s="78"/>
@@ -16271,15 +16382,15 @@
       <c r="AF18" s="73"/>
       <c r="AG18" s="77"/>
       <c r="AI18" s="58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="12.75" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="F19" s="78"/>
       <c r="G19" s="198" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H19" s="199"/>
       <c r="I19" s="199"/>
@@ -16299,7 +16410,7 @@
       <c r="AF19" s="73"/>
       <c r="AG19" s="77"/>
     </row>
-    <row r="20" spans="1:35" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="72"/>
       <c r="B20" s="73"/>
       <c r="F20" s="78"/>
@@ -16322,7 +16433,7 @@
       <c r="AF20" s="73"/>
       <c r="AG20" s="77"/>
     </row>
-    <row r="21" spans="1:35" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="78"/>
@@ -16348,13 +16459,13 @@
       <c r="AF21" s="73"/>
       <c r="AG21" s="77"/>
     </row>
-    <row r="22" spans="1:35" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="72"/>
       <c r="B22" s="73"/>
       <c r="E22" s="78"/>
       <c r="F22" s="81"/>
       <c r="G22" s="198" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H22" s="199"/>
       <c r="I22" s="199"/>
@@ -16374,7 +16485,7 @@
       <c r="AF22" s="73"/>
       <c r="AG22" s="77"/>
     </row>
-    <row r="23" spans="1:35" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="72"/>
       <c r="B23" s="73"/>
       <c r="E23" s="78"/>
@@ -16398,10 +16509,10 @@
       <c r="AF23" s="73"/>
       <c r="AG23" s="77"/>
       <c r="AI23" s="58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="12.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="72"/>
       <c r="B24" s="73"/>
       <c r="C24" s="78"/>
@@ -16427,10 +16538,10 @@
       <c r="AF24" s="73"/>
       <c r="AG24" s="77"/>
       <c r="AI24" s="58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="12.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="72"/>
       <c r="B25" s="83"/>
       <c r="C25" s="73"/>
@@ -16438,7 +16549,7 @@
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="198" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H25" s="199"/>
       <c r="I25" s="199"/>
@@ -16458,10 +16569,10 @@
       <c r="AF25" s="80"/>
       <c r="AG25" s="77"/>
       <c r="AI25" s="58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="12.75" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="72"/>
       <c r="B26" s="83"/>
       <c r="C26" s="73"/>
@@ -16487,10 +16598,10 @@
       <c r="AF26" s="80"/>
       <c r="AG26" s="77"/>
       <c r="AI26" s="58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="12.75" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="72"/>
       <c r="B27" s="73"/>
       <c r="C27" s="78"/>
@@ -16516,7 +16627,7 @@
       <c r="AF27" s="80"/>
       <c r="AG27" s="77"/>
     </row>
-    <row r="28" spans="1:35" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="72"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
@@ -16524,7 +16635,7 @@
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="207" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="H28" s="208"/>
       <c r="I28" s="208"/>
@@ -16544,10 +16655,10 @@
       <c r="AF28" s="80"/>
       <c r="AG28" s="77"/>
       <c r="AI28" s="58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" ht="12.75" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="72"/>
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
@@ -16573,10 +16684,10 @@
       <c r="AF29" s="80"/>
       <c r="AG29" s="77"/>
       <c r="AI29" s="58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" ht="12.75" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="72"/>
       <c r="B30" s="73"/>
       <c r="C30" s="78"/>
@@ -16602,10 +16713,10 @@
       <c r="AF30" s="80"/>
       <c r="AG30" s="77"/>
       <c r="AI30" s="58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="12.75" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="72"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -16631,7 +16742,7 @@
       <c r="AF31" s="80"/>
       <c r="AG31" s="77"/>
     </row>
-    <row r="32" spans="1:35" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="72"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -16657,10 +16768,10 @@
       <c r="AF32" s="80"/>
       <c r="AG32" s="77"/>
       <c r="AI32" s="58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" ht="12.75" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="72"/>
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
@@ -16686,10 +16797,10 @@
       <c r="AF33" s="80"/>
       <c r="AG33" s="77"/>
       <c r="AI33" s="58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" ht="12.75" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="72"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -16724,10 +16835,10 @@
       <c r="AF34" s="80"/>
       <c r="AG34" s="77"/>
       <c r="AI34" s="58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" ht="12.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="72"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -16740,7 +16851,7 @@
       <c r="L35" s="130"/>
       <c r="M35" s="84"/>
       <c r="S35" s="220" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="T35" s="220"/>
       <c r="U35" s="73"/>
@@ -16757,7 +16868,7 @@
       <c r="AF35" s="80"/>
       <c r="AG35" s="77"/>
     </row>
-    <row r="36" spans="1:35" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="72"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
@@ -16790,10 +16901,10 @@
       <c r="AF36" s="80"/>
       <c r="AG36" s="77"/>
       <c r="AI36" s="58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" ht="12.75" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="72"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
@@ -16811,7 +16922,7 @@
       <c r="Q37" s="73"/>
       <c r="R37" s="73"/>
       <c r="S37" s="218" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="T37" s="219"/>
       <c r="U37" s="73"/>
@@ -16828,10 +16939,10 @@
       <c r="AF37" s="80"/>
       <c r="AG37" s="77"/>
       <c r="AI37" s="58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" ht="12.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="72"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
@@ -16866,10 +16977,10 @@
       <c r="AF38" s="80"/>
       <c r="AG38" s="77"/>
       <c r="AI38" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" ht="12.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="72"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
@@ -16904,7 +17015,7 @@
       <c r="AF39" s="80"/>
       <c r="AG39" s="77"/>
     </row>
-    <row r="40" spans="1:35" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="72"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
@@ -16939,10 +17050,10 @@
       <c r="AF40" s="80"/>
       <c r="AG40" s="77"/>
       <c r="AI40" s="58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" ht="12.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="72"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
@@ -16977,7 +17088,7 @@
       <c r="AF41" s="80"/>
       <c r="AG41" s="77"/>
     </row>
-    <row r="42" spans="1:35" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="72"/>
       <c r="B42" s="73"/>
       <c r="C42" s="73"/>
@@ -17012,7 +17123,7 @@
       <c r="AF42" s="80"/>
       <c r="AG42" s="77"/>
     </row>
-    <row r="43" spans="1:35" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="72"/>
       <c r="B43" s="73"/>
       <c r="C43" s="73"/>
@@ -17047,7 +17158,7 @@
       <c r="AF43" s="80"/>
       <c r="AG43" s="77"/>
     </row>
-    <row r="44" spans="1:35" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="72"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73"/>
@@ -17082,7 +17193,7 @@
       <c r="AF44" s="80"/>
       <c r="AG44" s="77"/>
     </row>
-    <row r="45" spans="1:35" ht="12.75" customHeight="1">
+    <row r="45">
       <c r="A45" s="72"/>
       <c r="B45" s="73"/>
       <c r="C45" s="73"/>
@@ -17117,7 +17228,7 @@
       <c r="AF45" s="80"/>
       <c r="AG45" s="77"/>
     </row>
-    <row r="46" spans="1:35" ht="12.75" customHeight="1">
+    <row r="46">
       <c r="A46" s="72"/>
       <c r="B46" s="73"/>
       <c r="C46" s="73"/>
@@ -17152,7 +17263,7 @@
       <c r="AF46" s="80"/>
       <c r="AG46" s="77"/>
     </row>
-    <row r="47" spans="1:35" ht="12.75" customHeight="1">
+    <row r="47">
       <c r="A47" s="72"/>
       <c r="B47" s="73"/>
       <c r="C47" s="73"/>
@@ -17187,7 +17298,7 @@
       <c r="AF47" s="80"/>
       <c r="AG47" s="77"/>
     </row>
-    <row r="48" spans="1:35" ht="12.75" customHeight="1">
+    <row r="48">
       <c r="A48" s="72"/>
       <c r="B48" s="73"/>
       <c r="C48" s="73"/>
@@ -17222,7 +17333,7 @@
       <c r="AF48" s="80"/>
       <c r="AG48" s="77"/>
     </row>
-    <row r="49" spans="1:33" ht="12.75" customHeight="1">
+    <row r="49">
       <c r="A49" s="72"/>
       <c r="B49" s="73"/>
       <c r="C49" s="73"/>
@@ -17257,7 +17368,7 @@
       <c r="AF49" s="80"/>
       <c r="AG49" s="77"/>
     </row>
-    <row r="50" spans="1:33" ht="12.75" customHeight="1">
+    <row r="50">
       <c r="A50" s="72"/>
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
@@ -17292,7 +17403,7 @@
       <c r="AF50" s="80"/>
       <c r="AG50" s="77"/>
     </row>
-    <row r="51" spans="1:33" ht="12.75" customHeight="1">
+    <row r="51">
       <c r="A51" s="72"/>
       <c r="B51" s="73"/>
       <c r="C51" s="73"/>
@@ -17327,7 +17438,7 @@
       <c r="AF51" s="80"/>
       <c r="AG51" s="77"/>
     </row>
-    <row r="52" spans="1:33" ht="12.75" customHeight="1">
+    <row r="52">
       <c r="A52" s="72"/>
       <c r="B52" s="73"/>
       <c r="C52" s="73"/>
@@ -17362,7 +17473,7 @@
       <c r="AF52" s="80"/>
       <c r="AG52" s="77"/>
     </row>
-    <row r="53" spans="1:33" ht="12.75" customHeight="1">
+    <row r="53">
       <c r="A53" s="72"/>
       <c r="B53" s="73"/>
       <c r="C53" s="73"/>
@@ -17397,7 +17508,7 @@
       <c r="AF53" s="80"/>
       <c r="AG53" s="77"/>
     </row>
-    <row r="54" spans="1:33" ht="12.75" customHeight="1">
+    <row r="54">
       <c r="A54" s="72"/>
       <c r="B54" s="73"/>
       <c r="C54" s="73"/>
@@ -17432,7 +17543,7 @@
       <c r="AF54" s="80"/>
       <c r="AG54" s="77"/>
     </row>
-    <row r="55" spans="1:33" ht="12.75" customHeight="1">
+    <row r="55">
       <c r="A55" s="72"/>
       <c r="B55" s="73"/>
       <c r="C55" s="73"/>
@@ -17467,7 +17578,7 @@
       <c r="AF55" s="73"/>
       <c r="AG55" s="77"/>
     </row>
-    <row r="56" spans="1:33" ht="12.75" customHeight="1">
+    <row r="56">
       <c r="A56" s="72"/>
       <c r="S56" s="66"/>
       <c r="T56" s="66"/>
@@ -17485,7 +17596,7 @@
       <c r="AF56" s="66"/>
       <c r="AG56" s="77"/>
     </row>
-    <row r="57" spans="1:33" ht="12.75" customHeight="1">
+    <row r="57">
       <c r="A57" s="87"/>
       <c r="B57" s="88"/>
       <c r="C57" s="88"/>
@@ -17522,33 +17633,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G19:K21"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="G22:K24"/>
-    <mergeCell ref="G25:K27"/>
-    <mergeCell ref="G28:K33"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="G10:K12"/>
-    <mergeCell ref="G13:K15"/>
-    <mergeCell ref="G16:K18"/>
-    <mergeCell ref="L10:T12"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="L13:T15"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="G3:L4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="G10:K12"/>
+    <mergeCell ref="L10:T12"/>
+    <mergeCell ref="G13:K15"/>
+    <mergeCell ref="L13:T15"/>
+    <mergeCell ref="G16:K18"/>
     <mergeCell ref="L16:T18"/>
+    <mergeCell ref="G19:K21"/>
     <mergeCell ref="L19:T21"/>
+    <mergeCell ref="G22:K24"/>
     <mergeCell ref="L22:T24"/>
+    <mergeCell ref="G25:K27"/>
     <mergeCell ref="L25:T27"/>
+    <mergeCell ref="G28:K33"/>
     <mergeCell ref="L28:T33"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S37:T37"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <printOptions horizontalCentered="1"/>
@@ -17569,7 +17680,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.21875" style="1" bestFit="1" customWidth="1"/>
@@ -17580,45 +17691,45 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" ht="18">
       <c r="A1" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" ht="30">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="4">
@@ -17628,33 +17739,33 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
+    <row r="6" customHeight="1" ht="30">
       <c r="A6" s="4">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4">
         <v>1234</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="30">
       <c r="A7" s="221" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
@@ -17664,177 +17775,177 @@
         <v>1234.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
+    <row r="8" customHeight="1" ht="30">
       <c r="A8" s="222"/>
       <c r="B8" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13">
         <v>1234</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="14"/>
+    <row r="10">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11">
       <c r="A11" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" ht="40">
+      <c r="A13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.5">
-      <c r="A13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="40.5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" ht="40">
       <c r="A14" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="30">
       <c r="A18" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="30">
       <c r="A19" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F19" s="16">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
+        <v>0.7948495370370371</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="30">
       <c r="A20" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F20" s="17">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.7948495370370371</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="B25" s="14"/>
     </row>
   </sheetData>
